--- a/Day14/fileExcel/grade.xlsx
+++ b/Day14/fileExcel/grade.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="abc" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -725,4 +726,122 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>